--- a/Files data/Empathy data availability.xlsx
+++ b/Files data/Empathy data availability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\hoehl\projects\mibo_p\Physiological_Synchrony\analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninab36\python code\Files data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE04785-2C2D-490A-82F7-96346CAC1542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C79EF-B577-48D0-B7E5-A8F6EC8FF141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03_ibi_after_manual_coding 9 m" sheetId="2" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>'hammer': ['ch_2']</t>
   </si>
   <si>
-    <t>mom 9 month empathy</t>
-  </si>
-  <si>
     <t>infant 9 month empathy</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>Total Usable subjects - Peaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mom 9 month empathy</t>
   </si>
 </sst>
 </file>
@@ -925,8 +925,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:C100"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>47</v>
@@ -1023,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1037,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1083,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -1180,10 +1180,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -1240,7 +1240,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="7">
         <f>COUNTIF(B2:B91,"*") - COUNTIF(B2:B91,"False*")</f>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="5">
         <f>COUNTIF(B2:B91, "*'hammer':*")</f>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" s="5">
         <f>COUNTIF(B2:B91, "*'chair':*")</f>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B96" s="5">
         <f>COUNTIF(B2:B91, "*'neutral':*")</f>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97" s="5">
         <f>COUNTIF(B2:B91, "*'not play':*")</f>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" s="5">
         <f>COUNTIF(B2:B91, "*'no book':*")</f>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" s="9"/>
     </row>
@@ -1950,8 +1950,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100:G100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>49</v>
@@ -1978,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1989,10 +1989,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,10 +2020,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,10 +2031,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2042,10 +2042,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,10 +2073,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
         <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,10 +2089,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
         <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,10 +2105,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
         <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2134,10 +2134,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2150,10 +2150,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
         <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,10 +2189,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,10 +2200,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2216,10 +2216,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2227,7 +2227,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2240,10 +2240,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
         <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2251,7 +2251,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2279,10 +2279,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
         <v>106</v>
-      </c>
-      <c r="C43" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2295,10 +2295,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
         <v>108</v>
-      </c>
-      <c r="C45" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,10 +2306,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
         <v>110</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,10 +2317,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="s">
         <v>112</v>
-      </c>
-      <c r="C47" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,10 +2343,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
         <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2354,10 +2354,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
         <v>116</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,10 +2370,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2399,10 +2399,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
         <v>121</v>
-      </c>
-      <c r="C58" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,10 +2430,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
         <v>123</v>
-      </c>
-      <c r="C63" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +2481,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
         <v>125</v>
-      </c>
-      <c r="C72" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2502,10 +2502,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" t="s">
         <v>127</v>
-      </c>
-      <c r="C75" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,10 +2518,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" t="s">
         <v>129</v>
-      </c>
-      <c r="C77" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,10 +2539,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" t="s">
         <v>131</v>
-      </c>
-      <c r="C80" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2550,10 +2550,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" t="s">
         <v>133</v>
-      </c>
-      <c r="C81" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2561,10 +2561,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" t="s">
         <v>135</v>
-      </c>
-      <c r="C82" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,10 +2572,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
         <v>137</v>
-      </c>
-      <c r="C83" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,10 +2588,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" t="s">
         <v>139</v>
-      </c>
-      <c r="C85" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2599,10 +2599,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" t="s">
         <v>141</v>
-      </c>
-      <c r="C86" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,7 +2635,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B93" s="4">
         <f>COUNTIF(B2:B91,"*") - COUNTIF(B2:B91,"False*")</f>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="5">
         <f t="shared" ref="B94:C94" si="1">COUNTIF(B2:B91, "*'hammer':*")</f>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" s="5">
         <f t="shared" ref="B95:C95" si="2">COUNTIF(B2:B91, "*'chair':*")</f>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B96" s="5">
         <f>COUNTIF(B2:B91, "*'neutral':*")</f>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97" s="5">
         <f t="shared" ref="B97:C97" si="4">COUNTIF(B2:B91, "*'not play':*")</f>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" s="5">
         <f>COUNTIF(B2:B91, "*'no book':*")</f>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A350F98F-8420-444A-BC6C-9F05618DB2F5}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>67</v>
@@ -2755,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,10 +2766,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2788,10 +2788,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,10 +2799,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,10 +2810,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,10 +2826,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2837,10 +2837,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,10 +2848,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2859,10 +2859,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2870,10 +2870,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,10 +2886,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2897,10 +2897,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2908,10 +2908,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2929,10 +2929,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2940,10 +2940,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2951,10 +2951,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2962,10 +2962,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,10 +2978,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2989,10 +2989,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,10 +3000,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,10 +3016,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,10 +3027,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3038,10 +3038,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,10 +3049,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3060,10 +3060,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,10 +3071,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3082,10 +3082,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,10 +3093,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3104,10 +3104,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3115,10 +3115,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +3136,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3158,10 +3158,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3169,10 +3169,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B93" s="4">
         <f>COUNTIF(B2:B91,"*") - COUNTIF(B2:B91,"False*")</f>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94" s="10">
         <f>COUNTIF(B2:B91, "*'ibis':*")</f>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95" s="10">
         <f>COUNTIF(B2:B91, "*'peaks':*")</f>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B96" s="5">
         <f>COUNTIF(B2:B91, "*'hammer':*")</f>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97" s="5">
         <f>COUNTIF(B2:B91, "*'chair':*")</f>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B98" s="5">
         <f>COUNTIF(B2:B91, "*'neutral':*")</f>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B99" s="5">
         <f>COUNTIF(B2:B91, "*'not play':*")</f>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B100" s="5">
         <f>COUNTIF(B2:B91, "*'no book':*")</f>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
